--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/116.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/116.xlsx
@@ -479,13 +479,13 @@
         <v>-7.966198669796842</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.537150964975</v>
+        <v>-21.64661582872523</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004756868977572754</v>
+        <v>0.1747574157539393</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.815089743046864</v>
+        <v>-8.730294807947091</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-8.067266697243824</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.68178734412582</v>
+        <v>-21.80711703515918</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.121663070587114</v>
+        <v>0.04526717987683002</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.284862281309337</v>
+        <v>-8.140626800721613</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-8.07644602538485</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.93293073787237</v>
+        <v>-22.01570162412924</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2655220976460863</v>
+        <v>-0.1021021541125873</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.171593770216653</v>
+        <v>-8.010530327993006</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-7.971455128570826</v>
       </c>
       <c r="E5" t="n">
-        <v>-22.00804543937565</v>
+        <v>-22.05114692391437</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.284858119804735</v>
+        <v>-0.07533973052309484</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.711200882566138</v>
+        <v>-7.534492618368365</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-7.739562000436831</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.97937630310806</v>
+        <v>-22.02450672549655</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4202640539908113</v>
+        <v>-0.1997307322380119</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.961593904696404</v>
+        <v>-6.682871623213583</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-7.373451474681304</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.22788941116022</v>
+        <v>-22.26550542999426</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5190855497917632</v>
+        <v>-0.3624319917620744</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.374341066863181</v>
+        <v>-6.02907451291478</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-6.876107109267801</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.60416204665859</v>
+        <v>-22.68590624147341</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.6913057056857091</v>
+        <v>-0.545368850708298</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.965932989228574</v>
+        <v>-5.651408510459334</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-6.251605108966947</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.84061886377693</v>
+        <v>-22.79656402289916</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.8268827551121276</v>
+        <v>-0.7261838806742804</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.693233964205792</v>
+        <v>-5.344598884526087</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-5.513524283018292</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.3172432542256</v>
+        <v>-23.21523901495429</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.9182338484204334</v>
+        <v>-0.8176083090855899</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.422387872785571</v>
+        <v>-5.105125550170859</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-4.692526387571049</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.75942948030373</v>
+        <v>-23.65298113379039</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.158909878464923</v>
+        <v>-1.081184447294709</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.110855466218883</v>
+        <v>-4.762396390786387</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-3.822179001222837</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.23836148199358</v>
+        <v>-24.1987409703441</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.104270337720281</v>
+        <v>-1.015789091442854</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.950989830677631</v>
+        <v>-4.606720634130081</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-2.937563863588373</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.85353054903689</v>
+        <v>-24.80385823926903</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.032172153453886</v>
+        <v>-0.9390414616460234</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.848765586097307</v>
+        <v>-4.573534055517463</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-2.087846229909363</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.43824110329932</v>
+        <v>-25.37323197898995</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.923142411314816</v>
+        <v>-0.8407333115660977</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.736890441961692</v>
+        <v>-4.451548445181068</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-1.311359476754685</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.0798059184171</v>
+        <v>-25.98314047464445</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9006578687338741</v>
+        <v>-0.8052293436985613</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.706221701885535</v>
+        <v>-4.435673839884195</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.6365851225059381</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.83377877941899</v>
+        <v>-26.71620305327655</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.8244578077061377</v>
+        <v>-0.7123773252821126</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.615745740806406</v>
+        <v>-4.33552742322231</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.09291446449720075</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.64389699528052</v>
+        <v>-27.56656024015623</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7282910426339207</v>
+        <v>-0.627909953642423</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.646487815985568</v>
+        <v>-4.399695638350568</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3076544103104724</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.47553173036336</v>
+        <v>-28.34816576796992</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5851947006461872</v>
+        <v>-0.5139863156295709</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.837325310028726</v>
+        <v>-4.592200283735344</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.5663219417048957</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.17262588547556</v>
+        <v>-29.03167092849554</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.3061399666964157</v>
+        <v>-0.2432135593123534</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.067783315721362</v>
+        <v>-4.753356617089461</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.685776457230066</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.60233047702245</v>
+        <v>-29.49407808697522</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1257893923827902</v>
+        <v>-0.07939271721576734</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.382371351579872</v>
+        <v>-5.071655409159959</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.6804327439488279</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.21915202838677</v>
+        <v>-30.11337836482107</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3221120827227559</v>
+        <v>0.37929879604506</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.658590461546832</v>
+        <v>-5.370887074449489</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.5722807934268096</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.7446664875046</v>
+        <v>-30.62017770565234</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3390231574754147</v>
+        <v>0.4050100831581657</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.930165014990224</v>
+        <v>-5.593957790766217</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.3807007956124902</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.10767035836616</v>
+        <v>-30.96683762655781</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6126950948647127</v>
+        <v>0.6703022627775715</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.237649323871106</v>
+        <v>-5.899784726319215</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.1275974757878866</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.31860167063234</v>
+        <v>-31.15819824433573</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8289505356089616</v>
+        <v>0.9231128078657436</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.455606139005041</v>
+        <v>-6.066108739931661</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-0.1648691080346445</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.60247207634602</v>
+        <v>-31.41107968002347</v>
       </c>
       <c r="F25" t="n">
-        <v>1.046516230193544</v>
+        <v>1.172457047085273</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.489755851970442</v>
+        <v>-6.143946618259814</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-0.4825348150437097</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.49419279676102</v>
+        <v>-31.27739956526142</v>
       </c>
       <c r="F26" t="n">
-        <v>1.093000907484171</v>
+        <v>1.22799127608656</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.607155573865671</v>
+        <v>-6.259214733161068</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-0.8133023714043451</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.58135156668095</v>
+        <v>-31.3368498887631</v>
       </c>
       <c r="F27" t="n">
-        <v>1.338135711791287</v>
+        <v>1.42846011365754</v>
       </c>
       <c r="G27" t="n">
-        <v>-6.905399659768083</v>
+        <v>-6.540088177665331</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-1.146077139503192</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.41143413302132</v>
+        <v>-31.19850077244314</v>
       </c>
       <c r="F28" t="n">
-        <v>1.480572037851987</v>
+        <v>1.586942160255455</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.033110297145636</v>
+        <v>-6.613755733136006</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-1.477539995715428</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.22457140156097</v>
+        <v>-30.9685830020093</v>
       </c>
       <c r="F29" t="n">
-        <v>1.50649355226037</v>
+        <v>1.576293903299314</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.313509507983809</v>
+        <v>-6.943670805522293</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-1.804676246551325</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.07695272822134</v>
+        <v>-30.79617950835785</v>
       </c>
       <c r="F30" t="n">
-        <v>1.611934763359124</v>
+        <v>1.693092277349913</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.348935251741475</v>
+        <v>-7.080739002043121</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-2.122236456308148</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.80923560119594</v>
+        <v>-30.51607852693855</v>
       </c>
       <c r="F31" t="n">
-        <v>1.564946518361205</v>
+        <v>1.66159240610638</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.343503565112332</v>
+        <v>-7.064673725478438</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-2.431515299376219</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.41212112942391</v>
+        <v>-30.16224398845588</v>
       </c>
       <c r="F32" t="n">
-        <v>1.515342654689486</v>
+        <v>1.579593982934482</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.373570957343858</v>
+        <v>-7.154025214978176</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-2.731946642093222</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.90540001270251</v>
+        <v>-29.647918021553</v>
       </c>
       <c r="F33" t="n">
-        <v>1.492408323476788</v>
+        <v>1.613313463295594</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.634859040339261</v>
+        <v>-7.501193592597806</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-3.019267930528432</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.29722222547889</v>
+        <v>-28.95689356846607</v>
       </c>
       <c r="F34" t="n">
-        <v>1.491005178505983</v>
+        <v>1.603437669424426</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.613034513685353</v>
+        <v>-7.435221333935656</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-3.294956993012704</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.85014454803042</v>
+        <v>-28.50046810988806</v>
       </c>
       <c r="F35" t="n">
-        <v>1.512291914404531</v>
+        <v>1.641992377576917</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.629720694122134</v>
+        <v>-7.510516928693013</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-3.558176640363591</v>
       </c>
       <c r="E36" t="n">
-        <v>-28.22314408436917</v>
+        <v>-27.87752552192636</v>
       </c>
       <c r="F36" t="n">
-        <v>1.410581015545232</v>
+        <v>1.521781476733213</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.534556175457634</v>
+        <v>-7.490560002662266</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.803468469936161</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.56043675905542</v>
+        <v>-27.14104308299085</v>
       </c>
       <c r="F37" t="n">
-        <v>1.530664802210397</v>
+        <v>1.686296557804901</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.461445966769788</v>
+        <v>-7.424646412082519</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-4.028827423682779</v>
       </c>
       <c r="E38" t="n">
-        <v>-27.03843505137148</v>
+        <v>-26.67550451561291</v>
       </c>
       <c r="F38" t="n">
-        <v>1.394158841479265</v>
+        <v>1.496304861949719</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.427486925072197</v>
+        <v>-7.349169924071086</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-4.23344203277798</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.29608580419568</v>
+        <v>-25.93764826574781</v>
       </c>
       <c r="F39" t="n">
-        <v>1.446754777353536</v>
+        <v>1.535632033187183</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.414873287355556</v>
+        <v>-7.36526453467697</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.412568680404161</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.63789347672352</v>
+        <v>-25.27500694202676</v>
       </c>
       <c r="F40" t="n">
-        <v>1.488599787127461</v>
+        <v>1.6291831795856</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.117357663476314</v>
+        <v>-7.122584011817046</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-4.563300961160814</v>
       </c>
       <c r="E41" t="n">
-        <v>-25.09547283185991</v>
+        <v>-24.75035783712438</v>
       </c>
       <c r="F41" t="n">
-        <v>1.509422067373652</v>
+        <v>1.64669560218289</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.153418978126679</v>
+        <v>-7.170770063497359</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-4.687518201118821</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.38272896576671</v>
+        <v>-24.04981204316414</v>
       </c>
       <c r="F42" t="n">
-        <v>1.521688585602741</v>
+        <v>1.704351660164418</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.879370587208628</v>
+        <v>-6.892160229172478</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-4.784779451134348</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.68146448779703</v>
+        <v>-23.37791582944402</v>
       </c>
       <c r="F43" t="n">
-        <v>1.470886915248628</v>
+        <v>1.620940314007982</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.878950132618074</v>
+        <v>-6.913618080311367</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.854611578980174</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.99139094654572</v>
+        <v>-22.67465174766577</v>
       </c>
       <c r="F44" t="n">
-        <v>1.586365257445159</v>
+        <v>1.712213183206417</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.780514868359607</v>
+        <v>-6.806783502255542</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.90366189234938</v>
       </c>
       <c r="E45" t="n">
-        <v>-22.17847132974944</v>
+        <v>-21.90258467224943</v>
       </c>
       <c r="F45" t="n">
-        <v>1.634233523679123</v>
+        <v>1.740427641835383</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.674262082120945</v>
+        <v>-6.713501251234804</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.937647317368174</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.66934971065638</v>
+        <v>-21.41808409173816</v>
       </c>
       <c r="F46" t="n">
-        <v>1.643419967582057</v>
+        <v>1.757759171178596</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.5263500683693</v>
+        <v>-6.540562411331422</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-4.959055733395036</v>
       </c>
       <c r="E47" t="n">
-        <v>-21.01256052815503</v>
+        <v>-20.80087141982448</v>
       </c>
       <c r="F47" t="n">
-        <v>1.714672353660475</v>
+        <v>1.824821678372069</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.50015476957637</v>
+        <v>-6.568097298005887</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-4.979015402799298</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.37344999448444</v>
+        <v>-20.16834148939676</v>
       </c>
       <c r="F48" t="n">
-        <v>1.749144741079092</v>
+        <v>1.866632465097926</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.465706827192087</v>
+        <v>-6.539296158552891</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.009321355934097</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.63460860973565</v>
+        <v>-19.46392849100478</v>
       </c>
       <c r="F49" t="n">
-        <v>1.901554641148299</v>
+        <v>1.972748359144314</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.192294007166736</v>
+        <v>-6.2139034175185</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-5.054255630963958</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.25380386487165</v>
+        <v>-19.09493558673125</v>
       </c>
       <c r="F50" t="n">
-        <v>1.915106968183387</v>
+        <v>1.982687710104753</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.182090649835485</v>
+        <v>-6.228565549112377</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-5.125298470194471</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.66613546145474</v>
+        <v>-18.56220495347786</v>
       </c>
       <c r="F51" t="n">
-        <v>1.879343882951904</v>
+        <v>1.968284695874821</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.215179448310765</v>
+        <v>-6.236109286708028</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-5.233961604294789</v>
       </c>
       <c r="E52" t="n">
-        <v>-18.12973807305116</v>
+        <v>-18.00613909044868</v>
       </c>
       <c r="F52" t="n">
-        <v>1.909914842890724</v>
+        <v>1.994861337203371</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.231528287273728</v>
+        <v>-6.27810096668796</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-5.377633952196457</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.7503902522335</v>
+        <v>-17.70649185957547</v>
       </c>
       <c r="F53" t="n">
-        <v>2.001833060995592</v>
+        <v>2.062398078062934</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.130281844066786</v>
+        <v>-6.211419802030107</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-5.560193241012062</v>
       </c>
       <c r="E54" t="n">
-        <v>-17.13718167694382</v>
+        <v>-17.14248624939443</v>
       </c>
       <c r="F54" t="n">
-        <v>2.061713617101566</v>
+        <v>2.14221111516532</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.116607291860025</v>
+        <v>-6.136397991657297</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-5.786786978571948</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.88462536021273</v>
+        <v>-16.88228841493035</v>
       </c>
       <c r="F55" t="n">
-        <v>2.010017258490807</v>
+        <v>2.046117685196107</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.342963420791321</v>
+        <v>-6.373167705215121</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-6.047708334695344</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.34426298724009</v>
+        <v>-16.43432338273553</v>
       </c>
       <c r="F56" t="n">
-        <v>2.042490042100856</v>
+        <v>2.093071707145958</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.208100166367472</v>
+        <v>-6.220332461548493</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-6.33829692300047</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.24682019137561</v>
+        <v>-16.36271898816269</v>
       </c>
       <c r="F57" t="n">
-        <v>2.083415918583801</v>
+        <v>2.080790521896268</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.359532265063295</v>
+        <v>-6.343418098429944</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-6.658023642222703</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.98727748383169</v>
+        <v>-16.07307955434605</v>
       </c>
       <c r="F58" t="n">
-        <v>1.955534165965907</v>
+        <v>2.000777035512338</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.526907415152129</v>
+        <v>-6.574003218301121</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-6.994530904296807</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.71411889216342</v>
+        <v>-15.79998940877392</v>
       </c>
       <c r="F59" t="n">
-        <v>2.019281926503611</v>
+        <v>2.069086239456873</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.332300496814579</v>
+        <v>-6.32424830250477</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-7.338318887084363</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.44322391067453</v>
+        <v>-15.47761318497641</v>
       </c>
       <c r="F60" t="n">
-        <v>2.084007488414698</v>
+        <v>2.047750613489657</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.355410832274487</v>
+        <v>-6.304545604831103</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-7.687611406395094</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.28995354539675</v>
+        <v>-15.38031217031107</v>
       </c>
       <c r="F61" t="n">
-        <v>2.022381556857235</v>
+        <v>2.03861794866226</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.207293480234431</v>
+        <v>-6.159190541670855</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.031825602446066</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.2364971443139</v>
+        <v>-15.30526102589706</v>
       </c>
       <c r="F62" t="n">
-        <v>2.051089805179759</v>
+        <v>2.07248409922938</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.289335904468131</v>
+        <v>-6.2336012261853</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.358958421468596</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.13872189598247</v>
+        <v>-15.19342499381638</v>
       </c>
       <c r="F63" t="n">
-        <v>2.012999552679625</v>
+        <v>2.07912337055465</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.355723728713969</v>
+        <v>-6.262622370947307</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.667179008706785</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.19161117226875</v>
+        <v>-15.32441615480163</v>
       </c>
       <c r="F64" t="n">
-        <v>1.865454214442999</v>
+        <v>1.922909823142984</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.343056311921792</v>
+        <v>-6.249915842100195</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-8.949377451071229</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.18968490356319</v>
+        <v>-15.31346966842661</v>
       </c>
       <c r="F65" t="n">
-        <v>1.872787724743372</v>
+        <v>1.953324334862061</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.43353227300092</v>
+        <v>-6.302115768418246</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-9.193521709668085</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.18172071137698</v>
+        <v>-15.28949886775812</v>
       </c>
       <c r="F66" t="n">
-        <v>1.922841377046847</v>
+        <v>1.961806761776159</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.341765614108927</v>
+        <v>-6.207621043694514</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.399301692450257</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.04562053821581</v>
+        <v>-15.13881967611981</v>
       </c>
       <c r="F67" t="n">
-        <v>1.730586071012283</v>
+        <v>1.791855105068461</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.147002247551636</v>
+        <v>-6.014485716423907</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.565030455618972</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.14777144769313</v>
+        <v>-15.22524265050626</v>
       </c>
       <c r="F68" t="n">
-        <v>1.694598091464922</v>
+        <v>1.734609723663754</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.267266927470876</v>
+        <v>-6.096039239970914</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.680681052984719</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.04542008893426</v>
+        <v>-15.12468555726755</v>
       </c>
       <c r="F69" t="n">
-        <v>1.691610908269237</v>
+        <v>1.783895801889124</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.026454005234114</v>
+        <v>-5.821966404018529</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.747381320512508</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.08535349702322</v>
+        <v>-15.17995577989803</v>
       </c>
       <c r="F70" t="n">
-        <v>1.56367048756894</v>
+        <v>1.605960396967754</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.00793444722224</v>
+        <v>-5.809470102466695</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.769153021269855</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.10152633173898</v>
+        <v>-15.28104088587836</v>
       </c>
       <c r="F71" t="n">
-        <v>1.469762443669238</v>
+        <v>1.563856269829883</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.964911186793389</v>
+        <v>-5.741390681844904</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.738325537362133</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.20993517000595</v>
+        <v>-15.37053415657724</v>
       </c>
       <c r="F72" t="n">
-        <v>1.384815949356591</v>
+        <v>1.455031865979223</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.821912624942994</v>
+        <v>-5.601951316993623</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-9.655736127302001</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.33543597627966</v>
+        <v>-15.47694828004251</v>
       </c>
       <c r="F73" t="n">
-        <v>1.303585100262799</v>
+        <v>1.375917956858805</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.973105162302338</v>
+        <v>-5.755583468779558</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-9.530980306104016</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.47699228110431</v>
+        <v>-15.63153378816749</v>
       </c>
       <c r="F74" t="n">
-        <v>1.191607286982979</v>
+        <v>1.305174027494546</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.874899681366617</v>
+        <v>-5.624631419849242</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-9.360709448772763</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.69846918118243</v>
+        <v>-15.80662379109232</v>
       </c>
       <c r="F75" t="n">
-        <v>1.108758176616238</v>
+        <v>1.198109666115976</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.903456370476268</v>
+        <v>-5.634218762315261</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-9.147765210008664</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.72647341251612</v>
+        <v>-15.83683296452299</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9265253346588501</v>
+        <v>1.020511602668423</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.010545176889173</v>
+        <v>-5.754194990829355</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-8.906065553168848</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.79922183469581</v>
+        <v>-15.87293828023515</v>
       </c>
       <c r="F77" t="n">
-        <v>0.763168948214621</v>
+        <v>0.8614477642533452</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.927671621488098</v>
+        <v>-5.634751664063756</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-8.638023366360569</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.95184196206029</v>
+        <v>-16.05333285561058</v>
       </c>
       <c r="F78" t="n">
-        <v>0.7788675492642849</v>
+        <v>0.8783099489373349</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.907020456482249</v>
+        <v>-5.576044469605841</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-8.347815675031226</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.05913121775474</v>
+        <v>-16.19444426081035</v>
       </c>
       <c r="F79" t="n">
-        <v>0.4999350404861864</v>
+        <v>0.6075763046750527</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.928126299126721</v>
+        <v>-5.619268179316236</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-8.052388511909278</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.55915928407533</v>
+        <v>-16.6701250729337</v>
       </c>
       <c r="F80" t="n">
-        <v>0.4822075015867527</v>
+        <v>0.5873211492254241</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.867820399423325</v>
+        <v>-5.568031387350967</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-7.75982173099189</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.07526729398121</v>
+        <v>-17.18930826815887</v>
       </c>
       <c r="F81" t="n">
-        <v>0.3165239478738721</v>
+        <v>0.4436283483999269</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.935562478571298</v>
+        <v>-5.550792749138225</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-7.475831333521947</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.49412317929042</v>
+        <v>-17.55701047461955</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.001369056626671676</v>
+        <v>0.1270015966779141</v>
       </c>
       <c r="G82" t="n">
-        <v>-5.974894538815628</v>
+        <v>-5.607823014240788</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-7.218746628555725</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.00090785310109</v>
+        <v>-18.05023304338139</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.006385177672126413</v>
+        <v>0.1518768636167774</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.998175989515878</v>
+        <v>-5.636022805849153</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-7.000907918937821</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.80396145403994</v>
+        <v>-18.92548260872397</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.09777538303536754</v>
+        <v>0.02074392143238463</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.99749152855451</v>
+        <v>-5.609265271266527</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-6.826984466172254</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.47452296888539</v>
+        <v>-19.53672580325315</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.2690324045765313</v>
+        <v>-0.1030603994585026</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.088231496004451</v>
+        <v>-5.714237137706059</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-6.712040003444793</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.14979748635055</v>
+        <v>-20.2375649376254</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.3877326022983593</v>
+        <v>-0.236569398980216</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.311727555918601</v>
+        <v>-5.878708217715944</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-6.666182175704974</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.88936733312251</v>
+        <v>-20.9274038065471</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.4912035436297472</v>
+        <v>-0.3457360333115599</v>
       </c>
       <c r="G87" t="n">
-        <v>-6.650623733919412</v>
+        <v>-6.223920992588809</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-6.685765995009897</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.715614382638</v>
+        <v>-21.75615891658532</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6131500419112068</v>
+        <v>-0.451265246533919</v>
       </c>
       <c r="G88" t="n">
-        <v>-6.8998261919398</v>
+        <v>-6.483478367153324</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-6.775876168210885</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.70468491684923</v>
+        <v>-22.70791166138139</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8371545585395159</v>
+        <v>-0.6801783260566108</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.933839012712927</v>
+        <v>-6.451025139570742</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-6.939997882849389</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.77573431820489</v>
+        <v>-23.82073273740797</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.108626442838702</v>
+        <v>-0.9543342751257333</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.331970397913279</v>
+        <v>-6.886249419870378</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.164124895726706</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.01184636940133</v>
+        <v>-25.08360232318704</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.081160002260374</v>
+        <v>-0.9759632415049651</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.685201144047885</v>
+        <v>-7.223845122044589</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-7.442656512472315</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.2478655294673</v>
+        <v>-26.28060720845503</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.310263753050875</v>
+        <v>-1.190908428408881</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.004404402388761</v>
+        <v>-7.561812388740685</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-7.772017235981198</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.53272342363031</v>
+        <v>-27.53701352715603</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.570270916247146</v>
+        <v>-1.43598945364046</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.336939982455716</v>
+        <v>-7.956267240777117</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-8.128598580986395</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.01984930989133</v>
+        <v>-28.97358708241315</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.859910350063788</v>
+        <v>-1.748807669013146</v>
       </c>
       <c r="G94" t="n">
-        <v>-8.669588009680609</v>
+        <v>-8.248722742549102</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-8.498633088417078</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.62369534609308</v>
+        <v>-30.61575559894121</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.141883821113108</v>
+        <v>-2.038373767726785</v>
       </c>
       <c r="G95" t="n">
-        <v>-8.988937938227492</v>
+        <v>-8.628476350936721</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-8.869449617575707</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.44532952669186</v>
+        <v>-32.36846456073022</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.190959672043201</v>
+        <v>-2.094250227208756</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.360165118639213</v>
+        <v>-8.946545359684473</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-9.215481010016191</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.14581411712848</v>
+        <v>-34.06569307259348</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.558329426036924</v>
+        <v>-2.50418367498584</v>
       </c>
       <c r="G97" t="n">
-        <v>-9.779236120250561</v>
+        <v>-9.391596543786608</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-9.511046616780551</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.13482100331266</v>
+        <v>-36.00019731022529</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.951141571766072</v>
+        <v>-2.910098359118321</v>
       </c>
       <c r="G98" t="n">
-        <v>-10.23742895481096</v>
+        <v>-9.778864555728674</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-9.749046200623662</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.20126731376534</v>
+        <v>-38.03284836071042</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.218027567624092</v>
+        <v>-3.201703173695463</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.61133531098575</v>
+        <v>-10.17097757347585</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-9.896590119044099</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.39638984045177</v>
+        <v>-40.19701369591555</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.583754615310531</v>
+        <v>-3.609563682560975</v>
       </c>
       <c r="G100" t="n">
-        <v>-10.76484034859315</v>
+        <v>-10.36270975577566</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-9.950870091363406</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.30078512929369</v>
+        <v>-42.04554230328922</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.040202074419445</v>
+        <v>-4.073686882450946</v>
       </c>
       <c r="G101" t="n">
-        <v>-11.04997700708536</v>
+        <v>-10.65007091239232</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-9.881012302452733</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.52314431323572</v>
+        <v>-44.2497266042035</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.265443509785084</v>
+        <v>-4.378477348548157</v>
       </c>
       <c r="G102" t="n">
-        <v>-11.20252868835371</v>
+        <v>-10.84239466452302</v>
       </c>
     </row>
   </sheetData>
